--- a/Datos/Database by set/Set with text box/Xlsx sets/From the Vault Lore (V16).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/From the Vault Lore (V16).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A86"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,595 +444,112 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Beseech the Queen</t>
+          <t>('Beseech the Queen', ['{2/B}{2/B}{2/B}', 'Sorcery', '({2/B} can be paid with any two mana or with {B}. This card’s converted mana cost is 6.)', 'Search your library for a card with converted mana cost less than or equal to the number of lands you control, reveal it, and put it into your hand. Then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2/B}{2/B}{2/B}</t>
+          <t>('Cabal Ritual', ['{1}{B}', 'Instant', 'Add {B}{B}{B}.', 'Threshold — Add {B}{B}{B}{B}{B} instead if seven or more cards are in your graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Conflux', ['{3}{W}{U}{B}{R}{G}', 'Sorcery', 'Search your library for a white card, a blue card, a black card, a red card, and a green card. Reveal those cards and put them into your hand. Then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>({2/B} can be paid with any two mana or with {B}. This card’s converted mana cost is 6.)</t>
+          <t>('Dark Depths', ['Legendary Snow Land', 'Dark Depths enters the battlefield with ten ice counters on it.', '{3}: Remove an ice counter from Dark Depths.', 'When Dark Depths has no ice counters on it, sacrifice it. If you do, create Marit Lage, a legendary 20/20 black Avatar creature token with flying and indestructible.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Search your library for a card with converted mana cost less than or equal to the number of lands you control, reveal it, and put it into your hand. Then shuffle your library.</t>
+          <t>('Glissa, the Traitor', ['{B}{G}{G}', 'Legendary Creature — Zombie Elf', 'First strike, deathtouch', 'Whenever a creature an opponent controls dies, you may return target artifact card from your graveyard to your hand.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cabal Ritual</t>
+          <t>('Helvault', ['{3}', 'Legendary Artifact', '{1}, {T}: Exile target creature you control.', '{7}, {T}: Exile target creature you don’t control.', 'When Helvault is put into a graveyard from the battlefield, return all cards exiled with it to the battlefield under their owners’ control.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{1}{B}</t>
+          <t>('Marit Lage', ['Token Legendary Creature — Avatar', 'Flying, indestructible', '20/20'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Memnarch', ['{7}', 'Legendary Artifact Creature — Wizard', '{1}{U}{U}: Target permanent becomes an artifact in addition to its other types. (This effect lasts indefinitely.)', '{3}{U}: Gain control of target artifact. (This effect lasts indefinitely.)', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Add {B}{B}{B}.</t>
+          <t>("Mind's Desire", ['{4}{U}{U}', 'Sorcery', 'Shuffle your library. Then exile the top card of your library. Until end of turn, you may play that card without paying its mana cost. (If it has X in its mana cost, X is 0.)', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Threshold — Add {B}{B}{B}{B}{B} instead if seven or more cards are in your graveyard.</t>
+          <t>('Momir Vig, Simic Visionary', ['{3}{G}{U}', 'Legendary Creature — Elf Wizard', 'Whenever you cast a green creature spell, you may search your library for a creature card and reveal it. If you do, shuffle your library and put that card on top of it.', 'Whenever you cast a blue creature spell, reveal the top card of your library. If it’s a creature card, put that card into your hand.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Conflux</t>
+          <t>('Near-Death Experience', ['{2}{W}{W}{W}', 'Enchantment', 'At the beginning of your upkeep, if you have exactly 1 life, you win the game.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{3}{W}{U}{B}{R}{G}</t>
+          <t>('Obliterate', ['{6}{R}{R}', 'Sorcery', 'This spell can’t be countered.', 'Destroy all artifacts, creatures, and lands. They can’t be regenerated.'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Phyrexian Processor', ['{4}', 'Artifact', 'As Phyrexian Processor enters the battlefield, pay any amount of life.', '{4}, {T}: Create an X/X black Minion creature token, where X is the life paid as Phyrexian Processor entered the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Search your library for a white card, a blue card, a black card, a red card, and a green card. Reveal those cards and put them into your hand. Then shuffle your library.</t>
+          <t>('Tolaria West', ['Land', 'Tolaria West enters the battlefield tapped.', '{T}: Add {U}.', 'Transmute {1}{U}{U} ({1}{U}{U}, Discard this card: Search your library for a card with converted mana cost 0, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dark Depths</t>
+          <t>("Umezawa's Jitte", ['{2}', 'Legendary Artifact — Equipment', 'Whenever equipped creature deals combat damage, put two charge counters on Umezawa’s Jitte.', 'Remove a charge counter from Umezawa’s Jitte: Choose one —', '• Equipped creature gets +2/+2 until end of turn.', '• Target creature gets -1/-1 until end of turn.', '• You gain 2 life.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Legendary Snow Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Dark Depths enters the battlefield with ten ice counters on it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{3}: Remove an ice counter from Dark Depths.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>When Dark Depths has no ice counters on it, sacrifice it. If you do, create Marit Lage, a legendary 20/20 black Avatar creature token with flying and indestructible.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Glissa, the Traitor</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{B}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Zombie Elf</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>First strike, deathtouch</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Whenever a creature an opponent controls dies, you may return target artifact card from your graveyard to your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Helvault</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{3}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Legendary Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{1}, {T}: Exile target creature you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>{7}, {T}: Exile target creature you don’t control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>When Helvault is put into a graveyard from the battlefield, return all cards exiled with it to the battlefield under their owners’ control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Marit Lage</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Token Legendary Creature — Avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Flying, indestructible</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Memnarch</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>{7}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Legendary Artifact Creature — Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>{1}{U}{U}: Target permanent becomes an artifact in addition to its other types. (This effect lasts indefinitely.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{3}{U}: Gain control of target artifact. (This effect lasts indefinitely.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>4/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Mind's Desire</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>{4}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Shuffle your library. Then exile the top card of your library. Until end of turn, you may play that card without paying its mana cost. (If it has X in its mana cost, X is 0.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Storm (When you cast this spell, copy it for each spell cast before it this turn.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Momir Vig, Simic Visionary</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>{3}{G}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Elf Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Whenever you cast a green creature spell, you may search your library for a creature card and reveal it. If you do, shuffle your library and put that card on top of it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Whenever you cast a blue creature spell, reveal the top card of your library. If it’s a creature card, put that card into your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Near-Death Experience</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>{2}{W}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, if you have exactly 1 life, you win the game.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Obliterate</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>{6}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>This spell can’t be countered.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Destroy all artifacts, creatures, and lands. They can’t be regenerated.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Phyrexian Processor</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>{4}</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>As Phyrexian Processor enters the battlefield, pay any amount of life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>{4}, {T}: Create an X/X black Minion creature token, where X is the life paid as Phyrexian Processor entered the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Tolaria West</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Tolaria West enters the battlefield tapped.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>{T}: Add {U}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Transmute {1}{U}{U} ({1}{U}{U}, Discard this card: Search your library for a card with converted mana cost 0, reveal it, and put it into your hand. Then shuffle your library. Transmute only as a sorcery.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Umezawa's Jitte</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>{2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Legendary Artifact — Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Whenever equipped creature deals combat damage, put two charge counters on Umezawa’s Jitte.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Remove a charge counter from Umezawa’s Jitte: Choose one —</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>• Equipped creature gets +2/+2 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>• Target creature gets -1/-1 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>• You gain 2 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Equip {2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Unmask</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>{3}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>You may exile a black card from your hand rather than pay this spell’s mana cost.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Target player reveals their hand. You choose a nonland card from it. That player discards that card.</t>
+          <t>('Unmask', ['{3}{B}', 'Sorcery', 'You may exile a black card from your hand rather than pay this spell’s mana cost.', 'Target player reveals their hand. You choose a nonland card from it. That player discards that card.'])</t>
         </is>
       </c>
     </row>
